--- a/documentation/1.Солярик_профильнагрузкиWebTours_Отладочный.xlsx
+++ b/documentation/1.Солярик_профильнагрузкиWebTours_Отладочный.xlsx
@@ -1850,7 +1850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="B25" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2411,6 +2411,10 @@
         <v>96.332730560578653</v>
       </c>
       <c r="K8" s="16"/>
+      <c r="S8" s="20">
+        <f>SUM(S2:S7)*60</f>
+        <v>329.50858755785367</v>
+      </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="41" t="s">
@@ -3479,11 +3483,12 @@
         <v>882</v>
       </c>
       <c r="G45" s="28">
-        <v>56</v>
+        <f>SUM(G34:G44)</f>
+        <v>876</v>
       </c>
       <c r="H45" s="31">
         <f t="shared" si="23"/>
-        <v>-14.75</v>
+        <v>-6.8493150684931781E-3</v>
       </c>
     </row>
   </sheetData>
